--- a/natmiOut/OldD2/LR-pairs_lrc2p/Col1a1-Cd93.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Col1a1-Cd93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.3405544191779</v>
+        <v>27.524977</v>
       </c>
       <c r="H2">
-        <v>27.3405544191779</v>
+        <v>55.049954</v>
       </c>
       <c r="I2">
-        <v>0.03146288014020872</v>
+        <v>0.02927501708753065</v>
       </c>
       <c r="J2">
-        <v>0.03146288014020872</v>
+        <v>0.02011213558514335</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>234.538651801622</v>
+        <v>235.101616</v>
       </c>
       <c r="N2">
-        <v>234.538651801622</v>
+        <v>470.203232</v>
       </c>
       <c r="O2">
-        <v>0.4253153856435704</v>
+        <v>0.4180755282411119</v>
       </c>
       <c r="P2">
-        <v>0.4253153856435704</v>
+        <v>0.3241848074150884</v>
       </c>
       <c r="Q2">
-        <v>6412.416772982862</v>
+        <v>6471.166573062831</v>
       </c>
       <c r="R2">
-        <v>6412.416772982862</v>
+        <v>25884.66629225132</v>
       </c>
       <c r="S2">
-        <v>0.0133816470002903</v>
+        <v>0.01223916823313695</v>
       </c>
       <c r="T2">
-        <v>0.0133816470002903</v>
+        <v>0.006520048801375844</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.3405544191779</v>
+        <v>27.524977</v>
       </c>
       <c r="H3">
-        <v>27.3405544191779</v>
+        <v>55.049954</v>
       </c>
       <c r="I3">
-        <v>0.03146288014020872</v>
+        <v>0.02927501708753065</v>
       </c>
       <c r="J3">
-        <v>0.03146288014020872</v>
+        <v>0.02011213558514335</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>94.69438057492491</v>
+        <v>0.06134800000000001</v>
       </c>
       <c r="N3">
-        <v>94.69438057492491</v>
+        <v>0.184044</v>
       </c>
       <c r="O3">
-        <v>0.1717199987427602</v>
+        <v>0.0001090936674230931</v>
       </c>
       <c r="P3">
-        <v>0.1717199987427602</v>
+        <v>0.0001268903840624867</v>
       </c>
       <c r="Q3">
-        <v>2588.996865299077</v>
+        <v>1.688602288996</v>
       </c>
       <c r="R3">
-        <v>2588.996865299077</v>
+        <v>10.131613733976</v>
       </c>
       <c r="S3">
-        <v>0.005402805738120256</v>
+        <v>3.193718977952436E-06</v>
       </c>
       <c r="T3">
-        <v>0.005402805738120256</v>
+        <v>2.552036608715646E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.3405544191779</v>
+        <v>27.524977</v>
       </c>
       <c r="H4">
-        <v>27.3405544191779</v>
+        <v>55.049954</v>
       </c>
       <c r="I4">
-        <v>0.03146288014020872</v>
+        <v>0.02927501708753065</v>
       </c>
       <c r="J4">
-        <v>0.03146288014020872</v>
+        <v>0.02011213558514335</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>66.6246872012414</v>
+        <v>97.11560033333332</v>
       </c>
       <c r="N4">
-        <v>66.6246872012414</v>
+        <v>291.346801</v>
       </c>
       <c r="O4">
-        <v>0.1208180583997979</v>
+        <v>0.1726983276448897</v>
       </c>
       <c r="P4">
-        <v>0.1208180583997979</v>
+        <v>0.2008710279838891</v>
       </c>
       <c r="Q4">
-        <v>1821.555886086246</v>
+        <v>2673.104665516192</v>
       </c>
       <c r="R4">
-        <v>1821.555886086246</v>
+        <v>16038.62799309715</v>
       </c>
       <c r="S4">
-        <v>0.003801284090205579</v>
+        <v>0.005055746492792112</v>
       </c>
       <c r="T4">
-        <v>0.003801284090205579</v>
+        <v>0.004039945349939102</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.3405544191779</v>
+        <v>27.524977</v>
       </c>
       <c r="H5">
-        <v>27.3405544191779</v>
+        <v>55.049954</v>
       </c>
       <c r="I5">
-        <v>0.03146288014020872</v>
+        <v>0.02927501708753065</v>
       </c>
       <c r="J5">
-        <v>0.03146288014020872</v>
+        <v>0.02011213558514335</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>154.092684022355</v>
+        <v>68.91226833333333</v>
       </c>
       <c r="N5">
-        <v>154.092684022355</v>
+        <v>206.736805</v>
       </c>
       <c r="O5">
-        <v>0.2794336405807186</v>
+        <v>0.1225450231943603</v>
       </c>
       <c r="P5">
-        <v>0.2794336405807186</v>
+        <v>0.1425360923817208</v>
       </c>
       <c r="Q5">
-        <v>4212.979413110382</v>
+        <v>1896.808600892828</v>
       </c>
       <c r="R5">
-        <v>4212.979413110382</v>
+        <v>11380.85160535697</v>
       </c>
       <c r="S5">
-        <v>0.008791787140733313</v>
+        <v>0.003587507648006737</v>
       </c>
       <c r="T5">
-        <v>0.008791787140733313</v>
+        <v>0.002866705215757687</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>27.3405544191779</v>
+        <v>27.524977</v>
       </c>
       <c r="H6">
-        <v>27.3405544191779</v>
+        <v>55.049954</v>
       </c>
       <c r="I6">
-        <v>0.03146288014020872</v>
+        <v>0.02927501708753065</v>
       </c>
       <c r="J6">
-        <v>0.03146288014020872</v>
+        <v>0.02011213558514335</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.49602819711562</v>
+        <v>159.6431223333333</v>
       </c>
       <c r="N6">
-        <v>1.49602819711562</v>
+        <v>478.929367</v>
       </c>
       <c r="O6">
-        <v>0.002712916633152936</v>
+        <v>0.2838895105662259</v>
       </c>
       <c r="P6">
-        <v>0.002712916633152936</v>
+        <v>0.3302011003750931</v>
       </c>
       <c r="Q6">
-        <v>40.90224033586421</v>
+        <v>4394.173270433186</v>
       </c>
       <c r="R6">
-        <v>40.90224033586421</v>
+        <v>26365.03962259912</v>
       </c>
       <c r="S6">
-        <v>8.535617085926943E-05</v>
+        <v>0.008310870272796977</v>
       </c>
       <c r="T6">
-        <v>8.535617085926943E-05</v>
+        <v>0.006641049301107403</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>762.489990839008</v>
+        <v>27.524977</v>
       </c>
       <c r="H7">
-        <v>762.489990839008</v>
+        <v>55.049954</v>
       </c>
       <c r="I7">
-        <v>0.8774559148313684</v>
+        <v>0.02927501708753065</v>
       </c>
       <c r="J7">
-        <v>0.8774559148313684</v>
+        <v>0.02011213558514335</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>234.538651801622</v>
+        <v>1.508493</v>
       </c>
       <c r="N7">
-        <v>234.538651801622</v>
+        <v>3.016986</v>
       </c>
       <c r="O7">
-        <v>0.4253153856435704</v>
+        <v>0.002682516685989175</v>
       </c>
       <c r="P7">
-        <v>0.4253153856435704</v>
+        <v>0.00208008146014619</v>
       </c>
       <c r="Q7">
-        <v>178833.374463612</v>
+        <v>41.521235129661</v>
       </c>
       <c r="R7">
-        <v>178833.374463612</v>
+        <v>166.084940518644</v>
       </c>
       <c r="S7">
-        <v>0.3731955008017353</v>
+        <v>7.853072181991921E-05</v>
       </c>
       <c r="T7">
-        <v>0.3731955008017353</v>
+        <v>4.183488035460314E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>762.489990839008</v>
+        <v>830.1578366666666</v>
       </c>
       <c r="H8">
-        <v>762.489990839008</v>
+        <v>2490.47351</v>
       </c>
       <c r="I8">
-        <v>0.8774559148313684</v>
+        <v>0.8829393337463696</v>
       </c>
       <c r="J8">
-        <v>0.8774559148313684</v>
+        <v>0.9098779792682091</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>94.69438057492491</v>
+        <v>235.101616</v>
       </c>
       <c r="N8">
-        <v>94.69438057492491</v>
+        <v>470.203232</v>
       </c>
       <c r="O8">
-        <v>0.1717199987427602</v>
+        <v>0.4180755282411119</v>
       </c>
       <c r="P8">
-        <v>0.1717199987427602</v>
+        <v>0.3241848074150884</v>
       </c>
       <c r="Q8">
-        <v>72203.51737708003</v>
+        <v>195171.4489353974</v>
       </c>
       <c r="R8">
-        <v>72203.51737708003</v>
+        <v>1171028.693612384</v>
       </c>
       <c r="S8">
-        <v>0.1506767285916701</v>
+        <v>0.3691353283608688</v>
       </c>
       <c r="T8">
-        <v>0.1506767285916701</v>
+        <v>0.2949686174802941</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>762.489990839008</v>
+        <v>830.1578366666666</v>
       </c>
       <c r="H9">
-        <v>762.489990839008</v>
+        <v>2490.47351</v>
       </c>
       <c r="I9">
-        <v>0.8774559148313684</v>
+        <v>0.8829393337463696</v>
       </c>
       <c r="J9">
-        <v>0.8774559148313684</v>
+        <v>0.9098779792682091</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>66.6246872012414</v>
+        <v>0.06134800000000001</v>
       </c>
       <c r="N9">
-        <v>66.6246872012414</v>
+        <v>0.184044</v>
       </c>
       <c r="O9">
-        <v>0.1208180583997979</v>
+        <v>0.0001090936674230931</v>
       </c>
       <c r="P9">
-        <v>0.1208180583997979</v>
+        <v>0.0001268903840624867</v>
       </c>
       <c r="Q9">
-        <v>50800.65713372633</v>
+        <v>50.92852296382667</v>
       </c>
       <c r="R9">
-        <v>50800.65713372633</v>
+        <v>458.35670667444</v>
       </c>
       <c r="S9">
-        <v>0.1060125199613444</v>
+        <v>9.632309003049381E-05</v>
       </c>
       <c r="T9">
-        <v>0.1060125199613444</v>
+        <v>0.0001154547662393424</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>762.489990839008</v>
+        <v>830.1578366666666</v>
       </c>
       <c r="H10">
-        <v>762.489990839008</v>
+        <v>2490.47351</v>
       </c>
       <c r="I10">
-        <v>0.8774559148313684</v>
+        <v>0.8829393337463696</v>
       </c>
       <c r="J10">
-        <v>0.8774559148313684</v>
+        <v>0.9098779792682091</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>154.092684022355</v>
+        <v>97.11560033333332</v>
       </c>
       <c r="N10">
-        <v>154.092684022355</v>
+        <v>291.346801</v>
       </c>
       <c r="O10">
-        <v>0.2794336405807186</v>
+        <v>0.1726983276448897</v>
       </c>
       <c r="P10">
-        <v>0.2794336405807186</v>
+        <v>0.2008710279838891</v>
       </c>
       <c r="Q10">
-        <v>117494.1292285636</v>
+        <v>80621.2766793046</v>
       </c>
       <c r="R10">
-        <v>117494.1292285636</v>
+        <v>725591.4901137414</v>
       </c>
       <c r="S10">
-        <v>0.2451907007304143</v>
+        <v>0.1524821463498911</v>
       </c>
       <c r="T10">
-        <v>0.2451907007304143</v>
+        <v>0.1827681250355089</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>762.489990839008</v>
+        <v>830.1578366666666</v>
       </c>
       <c r="H11">
-        <v>762.489990839008</v>
+        <v>2490.47351</v>
       </c>
       <c r="I11">
-        <v>0.8774559148313684</v>
+        <v>0.8829393337463696</v>
       </c>
       <c r="J11">
-        <v>0.8774559148313684</v>
+        <v>0.9098779792682091</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.49602819711562</v>
+        <v>68.91226833333333</v>
       </c>
       <c r="N11">
-        <v>1.49602819711562</v>
+        <v>206.736805</v>
       </c>
       <c r="O11">
-        <v>0.002712916633152936</v>
+        <v>0.1225450231943603</v>
       </c>
       <c r="P11">
-        <v>0.002712916633152936</v>
+        <v>0.1425360923817208</v>
       </c>
       <c r="Q11">
-        <v>1140.706526313587</v>
+        <v>57208.05959939284</v>
       </c>
       <c r="R11">
-        <v>1140.706526313587</v>
+        <v>514872.5363945355</v>
       </c>
       <c r="S11">
-        <v>0.002380464746204446</v>
+        <v>0.1081998211331619</v>
       </c>
       <c r="T11">
-        <v>0.002380464746204446</v>
+        <v>0.1296904517090669</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.496919715195398</v>
+        <v>830.1578366666666</v>
       </c>
       <c r="H12">
-        <v>0.496919715195398</v>
+        <v>2490.47351</v>
       </c>
       <c r="I12">
-        <v>0.0005718437599616744</v>
+        <v>0.8829393337463696</v>
       </c>
       <c r="J12">
-        <v>0.0005718437599616744</v>
+        <v>0.9098779792682091</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>234.538651801622</v>
+        <v>159.6431223333333</v>
       </c>
       <c r="N12">
-        <v>234.538651801622</v>
+        <v>478.929367</v>
       </c>
       <c r="O12">
-        <v>0.4253153856435704</v>
+        <v>0.2838895105662259</v>
       </c>
       <c r="P12">
-        <v>0.4253153856435704</v>
+        <v>0.3302011003750931</v>
       </c>
       <c r="Q12">
-        <v>116.5468800555746</v>
+        <v>132528.989074952</v>
       </c>
       <c r="R12">
-        <v>116.5468800555746</v>
+        <v>1192760.901674568</v>
       </c>
       <c r="S12">
-        <v>0.0002432139492959688</v>
+        <v>0.2506572153169265</v>
       </c>
       <c r="T12">
-        <v>0.0002432139492959688</v>
+        <v>0.3004427099614289</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.496919715195398</v>
+        <v>830.1578366666666</v>
       </c>
       <c r="H13">
-        <v>0.496919715195398</v>
+        <v>2490.47351</v>
       </c>
       <c r="I13">
-        <v>0.0005718437599616744</v>
+        <v>0.8829393337463696</v>
       </c>
       <c r="J13">
-        <v>0.0005718437599616744</v>
+        <v>0.9098779792682091</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>94.69438057492491</v>
+        <v>1.508493</v>
       </c>
       <c r="N13">
-        <v>94.69438057492491</v>
+        <v>3.016986</v>
       </c>
       <c r="O13">
-        <v>0.1717199987427602</v>
+        <v>0.002682516685989175</v>
       </c>
       <c r="P13">
-        <v>0.1717199987427602</v>
+        <v>0.00208008146014619</v>
       </c>
       <c r="Q13">
-        <v>47.05550462589631</v>
+        <v>1252.28728550681</v>
       </c>
       <c r="R13">
-        <v>47.05550462589631</v>
+        <v>7513.72371304086</v>
       </c>
       <c r="S13">
-        <v>9.819700974167399E-05</v>
+        <v>0.002368499495490802</v>
       </c>
       <c r="T13">
-        <v>9.819700974167399E-05</v>
+        <v>0.001892620315671082</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.496919715195398</v>
+        <v>1.012325</v>
       </c>
       <c r="H14">
-        <v>0.496919715195398</v>
+        <v>3.036975</v>
       </c>
       <c r="I14">
-        <v>0.0005718437599616744</v>
+        <v>0.001076688698890992</v>
       </c>
       <c r="J14">
-        <v>0.0005718437599616744</v>
+        <v>0.001109538674068479</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>66.6246872012414</v>
+        <v>235.101616</v>
       </c>
       <c r="N14">
-        <v>66.6246872012414</v>
+        <v>470.203232</v>
       </c>
       <c r="O14">
-        <v>0.1208180583997979</v>
+        <v>0.4180755282411119</v>
       </c>
       <c r="P14">
-        <v>0.1208180583997979</v>
+        <v>0.3241848074150884</v>
       </c>
       <c r="Q14">
-        <v>33.10712058902335</v>
+        <v>237.9992434172</v>
       </c>
       <c r="R14">
-        <v>33.10712058902335</v>
+        <v>1427.9954605032</v>
       </c>
       <c r="S14">
-        <v>6.908905278660959E-05</v>
+        <v>0.0004501371965400868</v>
       </c>
       <c r="T14">
-        <v>6.908905278660959E-05</v>
+        <v>0.0003596955813724823</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.496919715195398</v>
+        <v>1.012325</v>
       </c>
       <c r="H15">
-        <v>0.496919715195398</v>
+        <v>3.036975</v>
       </c>
       <c r="I15">
-        <v>0.0005718437599616744</v>
+        <v>0.001076688698890992</v>
       </c>
       <c r="J15">
-        <v>0.0005718437599616744</v>
+        <v>0.001109538674068479</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>154.092684022355</v>
+        <v>0.06134800000000001</v>
       </c>
       <c r="N15">
-        <v>154.092684022355</v>
+        <v>0.184044</v>
       </c>
       <c r="O15">
-        <v>0.2794336405807186</v>
+        <v>0.0001090936674230931</v>
       </c>
       <c r="P15">
-        <v>0.2794336405807186</v>
+        <v>0.0001268903840624867</v>
       </c>
       <c r="Q15">
-        <v>76.57169265808311</v>
+        <v>0.06210411410000002</v>
       </c>
       <c r="R15">
-        <v>76.57169265808311</v>
+        <v>0.5589370269000001</v>
       </c>
       <c r="S15">
-        <v>0.0001597923836894573</v>
+        <v>1.174599188350166E-07</v>
       </c>
       <c r="T15">
-        <v>0.0001597923836894573</v>
+        <v>1.407897884847315E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.496919715195398</v>
+        <v>1.012325</v>
       </c>
       <c r="H16">
-        <v>0.496919715195398</v>
+        <v>3.036975</v>
       </c>
       <c r="I16">
-        <v>0.0005718437599616744</v>
+        <v>0.001076688698890992</v>
       </c>
       <c r="J16">
-        <v>0.0005718437599616744</v>
+        <v>0.001109538674068479</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.49602819711562</v>
+        <v>97.11560033333332</v>
       </c>
       <c r="N16">
-        <v>1.49602819711562</v>
+        <v>291.346801</v>
       </c>
       <c r="O16">
-        <v>0.002712916633152936</v>
+        <v>0.1726983276448897</v>
       </c>
       <c r="P16">
-        <v>0.002712916633152936</v>
+        <v>0.2008710279838891</v>
       </c>
       <c r="Q16">
-        <v>0.7434059056349787</v>
+        <v>98.31255010744167</v>
       </c>
       <c r="R16">
-        <v>0.7434059056349787</v>
+        <v>884.812950966975</v>
       </c>
       <c r="S16">
-        <v>1.551364447964741E-06</v>
+        <v>0.0001859423376926264</v>
       </c>
       <c r="T16">
-        <v>1.551364447964741E-06</v>
+        <v>0.0002228741740480166</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.25870765696297</v>
+        <v>1.012325</v>
       </c>
       <c r="H17">
-        <v>1.25870765696297</v>
+        <v>3.036975</v>
       </c>
       <c r="I17">
-        <v>0.001448491772895792</v>
+        <v>0.001076688698890992</v>
       </c>
       <c r="J17">
-        <v>0.001448491772895792</v>
+        <v>0.001109538674068479</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>234.538651801622</v>
+        <v>68.91226833333333</v>
       </c>
       <c r="N17">
-        <v>234.538651801622</v>
+        <v>206.736805</v>
       </c>
       <c r="O17">
-        <v>0.4253153856435704</v>
+        <v>0.1225450231943603</v>
       </c>
       <c r="P17">
-        <v>0.4253153856435704</v>
+        <v>0.1425360923817208</v>
       </c>
       <c r="Q17">
-        <v>295.2155968764735</v>
+        <v>69.76161204054168</v>
       </c>
       <c r="R17">
-        <v>295.2155968764735</v>
+        <v>627.8545083648751</v>
       </c>
       <c r="S17">
-        <v>0.0006160658369907128</v>
+        <v>0.0001319428415787021</v>
       </c>
       <c r="T17">
-        <v>0.0006160658369907128</v>
+        <v>0.0001581493069481166</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.25870765696297</v>
+        <v>1.012325</v>
       </c>
       <c r="H18">
-        <v>1.25870765696297</v>
+        <v>3.036975</v>
       </c>
       <c r="I18">
-        <v>0.001448491772895792</v>
+        <v>0.001076688698890992</v>
       </c>
       <c r="J18">
-        <v>0.001448491772895792</v>
+        <v>0.001109538674068479</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>94.69438057492491</v>
+        <v>159.6431223333333</v>
       </c>
       <c r="N18">
-        <v>94.69438057492491</v>
+        <v>478.929367</v>
       </c>
       <c r="O18">
-        <v>0.1717199987427602</v>
+        <v>0.2838895105662259</v>
       </c>
       <c r="P18">
-        <v>0.1717199987427602</v>
+        <v>0.3302011003750931</v>
       </c>
       <c r="Q18">
-        <v>119.1925419010235</v>
+        <v>161.6107238160917</v>
       </c>
       <c r="R18">
-        <v>119.1925419010235</v>
+        <v>1454.496514344825</v>
       </c>
       <c r="S18">
-        <v>0.0002487350054205639</v>
+        <v>0.0003056606277603502</v>
       </c>
       <c r="T18">
-        <v>0.0002487350054205639</v>
+        <v>0.0003663708910861335</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.25870765696297</v>
+        <v>1.012325</v>
       </c>
       <c r="H19">
-        <v>1.25870765696297</v>
+        <v>3.036975</v>
       </c>
       <c r="I19">
-        <v>0.001448491772895792</v>
+        <v>0.001076688698890992</v>
       </c>
       <c r="J19">
-        <v>0.001448491772895792</v>
+        <v>0.001109538674068479</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>66.6246872012414</v>
+        <v>1.508493</v>
       </c>
       <c r="N19">
-        <v>66.6246872012414</v>
+        <v>3.016986</v>
       </c>
       <c r="O19">
-        <v>0.1208180583997979</v>
+        <v>0.002682516685989175</v>
       </c>
       <c r="P19">
-        <v>0.1208180583997979</v>
+        <v>0.00208008146014619</v>
       </c>
       <c r="Q19">
-        <v>83.86100392296534</v>
+        <v>1.527085176225</v>
       </c>
       <c r="R19">
-        <v>83.86100392296534</v>
+        <v>9.162511057350002</v>
       </c>
       <c r="S19">
-        <v>0.0001750039636093506</v>
+        <v>2.88823540039106E-06</v>
       </c>
       <c r="T19">
-        <v>0.0001750039636093506</v>
+        <v>2.307930825245029E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.25870765696297</v>
+        <v>1.320133</v>
       </c>
       <c r="H20">
-        <v>1.25870765696297</v>
+        <v>3.960399</v>
       </c>
       <c r="I20">
-        <v>0.001448491772895792</v>
+        <v>0.001404067154454411</v>
       </c>
       <c r="J20">
-        <v>0.001448491772895792</v>
+        <v>0.001446905508027602</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>154.092684022355</v>
+        <v>235.101616</v>
       </c>
       <c r="N20">
-        <v>154.092684022355</v>
+        <v>470.203232</v>
       </c>
       <c r="O20">
-        <v>0.2794336405807186</v>
+        <v>0.4180755282411119</v>
       </c>
       <c r="P20">
-        <v>0.2794336405807186</v>
+        <v>0.3241848074150884</v>
       </c>
       <c r="Q20">
-        <v>193.9576412609138</v>
+        <v>310.365401634928</v>
       </c>
       <c r="R20">
-        <v>193.9576412609138</v>
+        <v>1862.192409809568</v>
       </c>
       <c r="S20">
-        <v>0.0004047573294514907</v>
+        <v>0.0005870061172845226</v>
       </c>
       <c r="T20">
-        <v>0.0004047573294514907</v>
+        <v>0.0004690647834677589</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.25870765696297</v>
+        <v>1.320133</v>
       </c>
       <c r="H21">
-        <v>1.25870765696297</v>
+        <v>3.960399</v>
       </c>
       <c r="I21">
-        <v>0.001448491772895792</v>
+        <v>0.001404067154454411</v>
       </c>
       <c r="J21">
-        <v>0.001448491772895792</v>
+        <v>0.001446905508027602</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>1.49602819711562</v>
+        <v>0.06134800000000001</v>
       </c>
       <c r="N21">
-        <v>1.49602819711562</v>
+        <v>0.184044</v>
       </c>
       <c r="O21">
-        <v>0.002712916633152936</v>
+        <v>0.0001090936674230931</v>
       </c>
       <c r="P21">
-        <v>0.002712916633152936</v>
+        <v>0.0001268903840624867</v>
       </c>
       <c r="Q21">
-        <v>1.883062146741938</v>
+        <v>0.08098751928400001</v>
       </c>
       <c r="R21">
-        <v>1.883062146741938</v>
+        <v>0.728887673556</v>
       </c>
       <c r="S21">
-        <v>3.92963742367418E-06</v>
+        <v>1.531748351877381E-07</v>
       </c>
       <c r="T21">
-        <v>3.92963742367418E-06</v>
+        <v>1.835983956157499E-07</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>21.4059925611064</v>
+        <v>1.320133</v>
       </c>
       <c r="H22">
-        <v>21.4059925611064</v>
+        <v>3.960399</v>
       </c>
       <c r="I22">
-        <v>0.02463352307734737</v>
+        <v>0.001404067154454411</v>
       </c>
       <c r="J22">
-        <v>0.02463352307734737</v>
+        <v>0.001446905508027602</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>234.538651801622</v>
+        <v>97.11560033333332</v>
       </c>
       <c r="N22">
-        <v>234.538651801622</v>
+        <v>291.346801</v>
       </c>
       <c r="O22">
-        <v>0.4253153856435704</v>
+        <v>0.1726983276448897</v>
       </c>
       <c r="P22">
-        <v>0.4253153856435704</v>
+        <v>0.2008710279838891</v>
       </c>
       <c r="Q22">
-        <v>5020.532635757445</v>
+        <v>128.2055088148443</v>
       </c>
       <c r="R22">
-        <v>5020.532635757445</v>
+        <v>1153.849579333599</v>
       </c>
       <c r="S22">
-        <v>0.01047701636740178</v>
+        <v>0.0002424800494753957</v>
       </c>
       <c r="T22">
-        <v>0.01047701636740178</v>
+        <v>0.0002906413967930558</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>21.4059925611064</v>
+        <v>1.320133</v>
       </c>
       <c r="H23">
-        <v>21.4059925611064</v>
+        <v>3.960399</v>
       </c>
       <c r="I23">
-        <v>0.02463352307734737</v>
+        <v>0.001404067154454411</v>
       </c>
       <c r="J23">
-        <v>0.02463352307734737</v>
+        <v>0.001446905508027602</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>94.69438057492491</v>
+        <v>68.91226833333333</v>
       </c>
       <c r="N23">
-        <v>94.69438057492491</v>
+        <v>206.736805</v>
       </c>
       <c r="O23">
-        <v>0.1717199987427602</v>
+        <v>0.1225450231943603</v>
       </c>
       <c r="P23">
-        <v>0.1717199987427602</v>
+        <v>0.1425360923817208</v>
       </c>
       <c r="Q23">
-        <v>2027.027206165421</v>
+        <v>90.97335953168833</v>
       </c>
       <c r="R23">
-        <v>2027.027206165421</v>
+        <v>818.7602357851949</v>
       </c>
       <c r="S23">
-        <v>0.004230068551871844</v>
+        <v>0.0001720614420090552</v>
       </c>
       <c r="T23">
-        <v>0.004230068551871844</v>
+        <v>0.000206236257159843</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>21.4059925611064</v>
+        <v>1.320133</v>
       </c>
       <c r="H24">
-        <v>21.4059925611064</v>
+        <v>3.960399</v>
       </c>
       <c r="I24">
-        <v>0.02463352307734737</v>
+        <v>0.001404067154454411</v>
       </c>
       <c r="J24">
-        <v>0.02463352307734737</v>
+        <v>0.001446905508027602</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>66.6246872012414</v>
+        <v>159.6431223333333</v>
       </c>
       <c r="N24">
-        <v>66.6246872012414</v>
+        <v>478.929367</v>
       </c>
       <c r="O24">
-        <v>0.1208180583997979</v>
+        <v>0.2838895105662259</v>
       </c>
       <c r="P24">
-        <v>0.1208180583997979</v>
+        <v>0.3302011003750931</v>
       </c>
       <c r="Q24">
-        <v>1426.167558615814</v>
+        <v>210.7501540152703</v>
       </c>
       <c r="R24">
-        <v>1426.167558615814</v>
+        <v>1896.751386137433</v>
       </c>
       <c r="S24">
-        <v>0.002976174429751724</v>
+        <v>0.0003985999372801762</v>
       </c>
       <c r="T24">
-        <v>0.002976174429751724</v>
+        <v>0.0004777697908894975</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>21.4059925611064</v>
+        <v>1.320133</v>
       </c>
       <c r="H25">
-        <v>21.4059925611064</v>
+        <v>3.960399</v>
       </c>
       <c r="I25">
-        <v>0.02463352307734737</v>
+        <v>0.001404067154454411</v>
       </c>
       <c r="J25">
-        <v>0.02463352307734737</v>
+        <v>0.001446905508027602</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>154.092684022355</v>
+        <v>1.508493</v>
       </c>
       <c r="N25">
-        <v>154.092684022355</v>
+        <v>3.016986</v>
       </c>
       <c r="O25">
-        <v>0.2794336405807186</v>
+        <v>0.002682516685989175</v>
       </c>
       <c r="P25">
-        <v>0.2794336405807186</v>
+        <v>0.00208008146014619</v>
       </c>
       <c r="Q25">
-        <v>3298.50684790345</v>
+        <v>1.991411389569</v>
       </c>
       <c r="R25">
-        <v>3298.50684790345</v>
+        <v>11.948468337414</v>
       </c>
       <c r="S25">
-        <v>0.006883435033832322</v>
+        <v>3.766433570073298E-06</v>
       </c>
       <c r="T25">
-        <v>0.006883435033832322</v>
+        <v>3.009681321831621E-06</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>21.4059925611064</v>
+        <v>24.21940733333333</v>
       </c>
       <c r="H26">
-        <v>21.4059925611064</v>
+        <v>72.65822199999999</v>
       </c>
       <c r="I26">
-        <v>0.02463352307734737</v>
+        <v>0.02575927905528127</v>
       </c>
       <c r="J26">
-        <v>0.02463352307734737</v>
+        <v>0.02654519951532467</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.49602819711562</v>
+        <v>235.101616</v>
       </c>
       <c r="N26">
-        <v>1.49602819711562</v>
+        <v>470.203232</v>
       </c>
       <c r="O26">
-        <v>0.002712916633152936</v>
+        <v>0.4180755282411119</v>
       </c>
       <c r="P26">
-        <v>0.002712916633152936</v>
+        <v>0.3241848074150884</v>
       </c>
       <c r="Q26">
-        <v>32.02396845866238</v>
+        <v>5694.021802628917</v>
       </c>
       <c r="R26">
-        <v>32.02396845866238</v>
+        <v>34164.1308157735</v>
       </c>
       <c r="S26">
-        <v>6.682869448969238E-05</v>
+        <v>0.01076932419814692</v>
       </c>
       <c r="T26">
-        <v>6.682869448969238E-05</v>
+        <v>0.008605550392670627</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>55.9859543366913</v>
+        <v>24.21940733333333</v>
       </c>
       <c r="H27">
-        <v>55.9859543366913</v>
+        <v>72.65822199999999</v>
       </c>
       <c r="I27">
-        <v>0.06442734641821805</v>
+        <v>0.02575927905528127</v>
       </c>
       <c r="J27">
-        <v>0.06442734641821805</v>
+        <v>0.02654519951532467</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M27">
-        <v>234.538651801622</v>
+        <v>0.06134800000000001</v>
       </c>
       <c r="N27">
-        <v>234.538651801622</v>
+        <v>0.184044</v>
       </c>
       <c r="O27">
-        <v>0.4253153856435704</v>
+        <v>0.0001090936674230931</v>
       </c>
       <c r="P27">
-        <v>0.4253153856435704</v>
+        <v>0.0001268903840624867</v>
       </c>
       <c r="Q27">
-        <v>13130.87024995475</v>
+        <v>1.485812201085333</v>
       </c>
       <c r="R27">
-        <v>13130.87024995475</v>
+        <v>13.372309809768</v>
       </c>
       <c r="S27">
-        <v>0.02740194168785631</v>
+        <v>2.810174222315501E-06</v>
       </c>
       <c r="T27">
-        <v>0.02740194168785631</v>
+        <v>3.368330561514884E-06</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2149,57 +2149,57 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>55.9859543366913</v>
+        <v>24.21940733333333</v>
       </c>
       <c r="H28">
-        <v>55.9859543366913</v>
+        <v>72.65822199999999</v>
       </c>
       <c r="I28">
-        <v>0.06442734641821805</v>
+        <v>0.02575927905528127</v>
       </c>
       <c r="J28">
-        <v>0.06442734641821805</v>
+        <v>0.02654519951532467</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>94.69438057492491</v>
+        <v>97.11560033333332</v>
       </c>
       <c r="N28">
-        <v>94.69438057492491</v>
+        <v>291.346801</v>
       </c>
       <c r="O28">
-        <v>0.1717199987427602</v>
+        <v>0.1726983276448897</v>
       </c>
       <c r="P28">
-        <v>0.1717199987427602</v>
+        <v>0.2008710279838891</v>
       </c>
       <c r="Q28">
-        <v>5301.555266809013</v>
+        <v>2352.082282894202</v>
       </c>
       <c r="R28">
-        <v>5301.555266809013</v>
+        <v>21168.74054604782</v>
       </c>
       <c r="S28">
-        <v>0.01106346384593578</v>
+        <v>0.004448584414185107</v>
       </c>
       <c r="T28">
-        <v>0.01106346384593578</v>
+        <v>0.005332161514680701</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,57 +2211,57 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>55.9859543366913</v>
+        <v>24.21940733333333</v>
       </c>
       <c r="H29">
-        <v>55.9859543366913</v>
+        <v>72.65822199999999</v>
       </c>
       <c r="I29">
-        <v>0.06442734641821805</v>
+        <v>0.02575927905528127</v>
       </c>
       <c r="J29">
-        <v>0.06442734641821805</v>
+        <v>0.02654519951532467</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>66.6246872012414</v>
+        <v>68.91226833333333</v>
       </c>
       <c r="N29">
-        <v>66.6246872012414</v>
+        <v>206.736805</v>
       </c>
       <c r="O29">
-        <v>0.1208180583997979</v>
+        <v>0.1225450231943603</v>
       </c>
       <c r="P29">
-        <v>0.1208180583997979</v>
+        <v>0.1425360923817208</v>
       </c>
       <c r="Q29">
-        <v>3730.046695345042</v>
+        <v>1669.014297028968</v>
       </c>
       <c r="R29">
-        <v>3730.046695345042</v>
+        <v>15021.12867326071</v>
       </c>
       <c r="S29">
-        <v>0.00778398690210028</v>
+        <v>0.003156671449299441</v>
       </c>
       <c r="T29">
-        <v>0.00778398690210028</v>
+        <v>0.003783649010407527</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>55.9859543366913</v>
+        <v>24.21940733333333</v>
       </c>
       <c r="H30">
-        <v>55.9859543366913</v>
+        <v>72.65822199999999</v>
       </c>
       <c r="I30">
-        <v>0.06442734641821805</v>
+        <v>0.02575927905528127</v>
       </c>
       <c r="J30">
-        <v>0.06442734641821805</v>
+        <v>0.02654519951532467</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>154.092684022355</v>
+        <v>159.6431223333333</v>
       </c>
       <c r="N30">
-        <v>154.092684022355</v>
+        <v>478.929367</v>
       </c>
       <c r="O30">
-        <v>0.2794336405807186</v>
+        <v>0.2838895105662259</v>
       </c>
       <c r="P30">
-        <v>0.2794336405807186</v>
+        <v>0.3302011003750931</v>
       </c>
       <c r="Q30">
-        <v>8627.025971293768</v>
+        <v>3866.461807756164</v>
       </c>
       <c r="R30">
-        <v>8627.025971293768</v>
+        <v>34798.15626980547</v>
       </c>
       <c r="S30">
-        <v>0.01800316796259779</v>
+        <v>0.007312789123542633</v>
       </c>
       <c r="T30">
-        <v>0.01800316796259779</v>
+        <v>0.008765254089636597</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>55.9859543366913</v>
+        <v>24.21940733333333</v>
       </c>
       <c r="H31">
-        <v>55.9859543366913</v>
+        <v>72.65822199999999</v>
       </c>
       <c r="I31">
-        <v>0.06442734641821805</v>
+        <v>0.02575927905528127</v>
       </c>
       <c r="J31">
-        <v>0.06442734641821805</v>
+        <v>0.02654519951532467</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.49602819711562</v>
+        <v>1.508493</v>
       </c>
       <c r="N31">
-        <v>1.49602819711562</v>
+        <v>3.016986</v>
       </c>
       <c r="O31">
-        <v>0.002712916633152936</v>
+        <v>0.002682516685989175</v>
       </c>
       <c r="P31">
-        <v>0.002712916633152936</v>
+        <v>0.00208008146014619</v>
       </c>
       <c r="Q31">
-        <v>83.75656633011771</v>
+        <v>36.534806426482</v>
       </c>
       <c r="R31">
-        <v>83.75656633011771</v>
+        <v>219.208838558892</v>
       </c>
       <c r="S31">
-        <v>0.00017478601972789</v>
+        <v>6.909969588484348E-05</v>
       </c>
       <c r="T31">
-        <v>0.00017478601972789</v>
+        <v>5.521617736770849E-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>55.986019</v>
+      </c>
+      <c r="H32">
+        <v>111.972038</v>
+      </c>
+      <c r="I32">
+        <v>0.05954561425747298</v>
+      </c>
+      <c r="J32">
+        <v>0.04090824144922671</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>235.101616</v>
+      </c>
+      <c r="N32">
+        <v>470.203232</v>
+      </c>
+      <c r="O32">
+        <v>0.4180755282411119</v>
+      </c>
+      <c r="P32">
+        <v>0.3241848074150884</v>
+      </c>
+      <c r="Q32">
+        <v>13162.4035403067</v>
+      </c>
+      <c r="R32">
+        <v>52649.61416122681</v>
+      </c>
+      <c r="S32">
+        <v>0.0248945641351345</v>
+      </c>
+      <c r="T32">
+        <v>0.0132618303759075</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>55.986019</v>
+      </c>
+      <c r="H33">
+        <v>111.972038</v>
+      </c>
+      <c r="I33">
+        <v>0.05954561425747298</v>
+      </c>
+      <c r="J33">
+        <v>0.04090824144922671</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.06134800000000001</v>
+      </c>
+      <c r="N33">
+        <v>0.184044</v>
+      </c>
+      <c r="O33">
+        <v>0.0001090936674230931</v>
+      </c>
+      <c r="P33">
+        <v>0.0001268903840624867</v>
+      </c>
+      <c r="Q33">
+        <v>3.434630293612</v>
+      </c>
+      <c r="R33">
+        <v>20.607781761672</v>
+      </c>
+      <c r="S33">
+        <v>6.496049438308545E-06</v>
+      </c>
+      <c r="T33">
+        <v>5.190862468813315E-06</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>55.986019</v>
+      </c>
+      <c r="H34">
+        <v>111.972038</v>
+      </c>
+      <c r="I34">
+        <v>0.05954561425747298</v>
+      </c>
+      <c r="J34">
+        <v>0.04090824144922671</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>97.11560033333332</v>
+      </c>
+      <c r="N34">
+        <v>291.346801</v>
+      </c>
+      <c r="O34">
+        <v>0.1726983276448897</v>
+      </c>
+      <c r="P34">
+        <v>0.2008710279838891</v>
+      </c>
+      <c r="Q34">
+        <v>5437.115845458406</v>
+      </c>
+      <c r="R34">
+        <v>32622.69507275043</v>
+      </c>
+      <c r="S34">
+        <v>0.01028342800085328</v>
+      </c>
+      <c r="T34">
+        <v>0.008217280512919308</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>55.986019</v>
+      </c>
+      <c r="H35">
+        <v>111.972038</v>
+      </c>
+      <c r="I35">
+        <v>0.05954561425747298</v>
+      </c>
+      <c r="J35">
+        <v>0.04090824144922671</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>68.91226833333333</v>
+      </c>
+      <c r="N35">
+        <v>206.736805</v>
+      </c>
+      <c r="O35">
+        <v>0.1225450231943603</v>
+      </c>
+      <c r="P35">
+        <v>0.1425360923817208</v>
+      </c>
+      <c r="Q35">
+        <v>3858.123564243098</v>
+      </c>
+      <c r="R35">
+        <v>23148.74138545859</v>
+      </c>
+      <c r="S35">
+        <v>0.007297018680304456</v>
+      </c>
+      <c r="T35">
+        <v>0.005830900882380717</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>55.986019</v>
+      </c>
+      <c r="H36">
+        <v>111.972038</v>
+      </c>
+      <c r="I36">
+        <v>0.05954561425747298</v>
+      </c>
+      <c r="J36">
+        <v>0.04090824144922671</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>159.6431223333333</v>
+      </c>
+      <c r="N36">
+        <v>478.929367</v>
+      </c>
+      <c r="O36">
+        <v>0.2838895105662259</v>
+      </c>
+      <c r="P36">
+        <v>0.3302011003750931</v>
+      </c>
+      <c r="Q36">
+        <v>8937.782880173325</v>
+      </c>
+      <c r="R36">
+        <v>53626.69728103995</v>
+      </c>
+      <c r="S36">
+        <v>0.01690437528791929</v>
+      </c>
+      <c r="T36">
+        <v>0.01350794634094465</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>55.986019</v>
+      </c>
+      <c r="H37">
+        <v>111.972038</v>
+      </c>
+      <c r="I37">
+        <v>0.05954561425747298</v>
+      </c>
+      <c r="J37">
+        <v>0.04090824144922671</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.508493</v>
+      </c>
+      <c r="N37">
+        <v>3.016986</v>
+      </c>
+      <c r="O37">
+        <v>0.002682516685989175</v>
+      </c>
+      <c r="P37">
+        <v>0.00208008146014619</v>
+      </c>
+      <c r="Q37">
+        <v>84.45451775936701</v>
+      </c>
+      <c r="R37">
+        <v>337.818071037468</v>
+      </c>
+      <c r="S37">
+        <v>0.0001597321038231462</v>
+      </c>
+      <c r="T37">
+        <v>8.50924746057204E-05</v>
       </c>
     </row>
   </sheetData>
